--- a/visualizations/NNwithAdvSummary.xlsx
+++ b/visualizations/NNwithAdvSummary.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amitapatil/GitRepo/recidivism_bk_05_21_2019/dataVis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amitapatil/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC05EF12-765D-9C48-8FD4-13E0ED293F27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDB10D34-B2CE-DD45-96B7-D239A78654F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="21160" xr2:uid="{D3952165-AEEC-2843-978A-C756F6019F28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -176,47 +176,41 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>9.9999999999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                  <c:v>5.5000000000000007E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1E-3</c:v>
+                  <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>64.8</c:v>
+                  <c:v>66.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.099999999999994</c:v>
+                  <c:v>66.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63.5</c:v>
+                  <c:v>63.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>55.1</c:v>
                 </c:pt>
               </c:numCache>
@@ -283,47 +277,41 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>9.9999999999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                  <c:v>5.5000000000000007E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1E-3</c:v>
+                  <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:f>Sheet1!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-24.2</c:v>
+                  <c:v>17.850000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-20.6</c:v>
+                  <c:v>18.440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-16.2</c:v>
+                  <c:v>12.31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.12</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -376,47 +364,41 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>9.9999999999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                  <c:v>5.5000000000000007E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1E-3</c:v>
+                  <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:f>Sheet1!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-16</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-14</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-11</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -469,47 +451,41 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>9.9999999999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                  <c:v>5.5000000000000007E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1E-3</c:v>
+                  <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$6</c:f>
+              <c:f>Sheet1!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-18</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-15.4</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-12.6</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -562,47 +538,41 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>9.9999999999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                  <c:v>5.5000000000000007E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1E-3</c:v>
+                  <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$6</c:f>
+              <c:f>Sheet1!$G$2:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-9.8000000000000007</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.6</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.4</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -630,7 +600,8 @@
         <c:axId val="710839919"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.2"/>
+          <c:max val="1.0000000000000004E-5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -655,7 +626,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -668,7 +639,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="1"/>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
                   <a:t>alpha</a:t>
                 </a:r>
               </a:p>
@@ -687,7 +658,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -703,7 +674,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -725,7 +696,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -748,6 +719,7 @@
         <c:axId val="710841599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -772,7 +744,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -785,7 +757,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
                   <a:t>Accuracy </a:t>
                 </a:r>
               </a:p>
@@ -812,7 +784,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -883,7 +855,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -896,7 +868,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
                   <a:t>Fairness Metrics</a:t>
                 </a:r>
               </a:p>
@@ -915,7 +887,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1642,13 +1614,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1974,13 +1946,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3159C5F4-8C0A-9C4B-A215-7AE2909EB65E}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -2007,85 +1986,86 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>64.8</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="C2">
         <v>80.900000000000006</v>
       </c>
       <c r="D2">
-        <v>-24.2</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="E2">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="F2">
-        <v>-18</v>
+        <v>-13</v>
       </c>
       <c r="G2">
-        <v>-9.8000000000000007</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.1</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="B3">
-        <v>64.099999999999994</v>
+        <v>66.7</v>
       </c>
       <c r="C3">
         <v>80.900000000000006</v>
       </c>
       <c r="D3">
-        <v>-20.6</v>
+        <v>18.440000000000001</v>
       </c>
       <c r="E3">
-        <v>-14</v>
+        <v>-10</v>
       </c>
       <c r="F3">
-        <v>-15.4</v>
+        <v>-13</v>
       </c>
       <c r="G3">
-        <v>-8.6</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0.05</v>
+        <f>AVERAGE(A3,A5)</f>
+        <v>5.5000000000000007E-6</v>
       </c>
       <c r="B4">
-        <v>63.5</v>
+        <v>63.6</v>
       </c>
       <c r="C4">
         <v>80.900000000000006</v>
       </c>
       <c r="D4">
-        <v>-16.2</v>
+        <v>12.31</v>
       </c>
       <c r="E4">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="F4">
-        <v>-12.6</v>
+        <v>-10</v>
       </c>
       <c r="G4">
-        <v>-6.4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0.01</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="B5">
-        <v>55.4</v>
+        <v>55.1</v>
       </c>
       <c r="C5">
         <v>80.900000000000006</v>
       </c>
       <c r="D5">
-        <v>-0.12</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2094,29 +2074,6 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1E-3</v>
-      </c>
-      <c r="B6">
-        <v>55.1</v>
-      </c>
-      <c r="C6">
-        <v>80.900000000000006</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
         <v>0</v>
       </c>
     </row>

--- a/visualizations/NNwithAdvSummary.xlsx
+++ b/visualizations/NNwithAdvSummary.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amitapatil/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amitapatil/GitRepo/recidivism_bk_05_21_2019/dataVis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDB10D34-B2CE-DD45-96B7-D239A78654F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22A64216-BED9-6840-AF72-0982DA758014}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="21160" xr2:uid="{D3952165-AEEC-2843-978A-C756F6019F28}"/>
+    <workbookView xWindow="540" yWindow="460" windowWidth="28940" windowHeight="21160" activeTab="2" xr2:uid="{D3952165-AEEC-2843-978A-C756F6019F28}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ProgressReport" sheetId="1" r:id="rId1"/>
+    <sheet name="Poster" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,7 +25,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>alpha</t>
   </si>
@@ -39,19 +40,61 @@
     <t>accuracy_advNN</t>
   </si>
   <si>
-    <t>average odds difference</t>
+    <t>Balanced Accuracy</t>
   </si>
   <si>
-    <t>statistical parity difference</t>
+    <t xml:space="preserve">Disparate Impact </t>
   </si>
   <si>
-    <t>equal opportunity difference</t>
+    <t>Average Odds Difference</t>
   </si>
   <si>
-    <t>accuracy</t>
+    <t>Statistical Parity Difference</t>
   </si>
   <si>
-    <t>disparate impact (-)</t>
+    <t>Equal Opportunity Difference</t>
+  </si>
+  <si>
+    <t>TPR</t>
+  </si>
+  <si>
+    <t>TNR</t>
+  </si>
+  <si>
+    <t>Disparate Impact (-)</t>
+  </si>
+  <si>
+    <t>Validation Accuracy</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">African-American </t>
+  </si>
+  <si>
+    <t>Hispanic</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>African-American+Hispanic Male</t>
+  </si>
+  <si>
+    <t>Without Debiasing (𝛼 = 0)</t>
+  </si>
+  <si>
+    <t>With Debiasing (𝛼 = 0.06)</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <t>Ratio (wo debiasing/w debiasing)</t>
   </si>
 </sst>
 </file>
@@ -75,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -83,12 +126,579 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -141,11 +751,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>ProgressReport!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>accuracy</c:v>
+                  <c:v>Balanced Accuracy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -176,41 +786,47 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>ProgressReport!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999999995E-7</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5000000000000007E-6</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:f>ProgressReport!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>66.400000000000006</c:v>
+                  <c:v>64.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66.7</c:v>
+                  <c:v>64.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63.6</c:v>
+                  <c:v>63.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>55.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>55.1</c:v>
                 </c:pt>
               </c:numCache>
@@ -242,11 +858,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>ProgressReport!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>disparate impact (-)</c:v>
+                  <c:v>Disparate Impact </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -277,41 +893,47 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>ProgressReport!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999999995E-7</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5000000000000007E-6</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:f>ProgressReport!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>17.850000000000001</c:v>
+                  <c:v>-24.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.440000000000001</c:v>
+                  <c:v>-20.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.31</c:v>
+                  <c:v>-16.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -329,11 +951,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>ProgressReport!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>average odds difference</c:v>
+                  <c:v>Average Odds Difference</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -364,41 +986,47 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>ProgressReport!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999999995E-7</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5000000000000007E-6</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$7</c:f>
+              <c:f>ProgressReport!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-10</c:v>
+                  <c:v>-16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-10</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -416,11 +1044,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>ProgressReport!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>statistical parity difference</c:v>
+                  <c:v>Statistical Parity Difference</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -451,41 +1079,47 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>ProgressReport!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999999995E-7</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5000000000000007E-6</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$7</c:f>
+              <c:f>ProgressReport!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-13</c:v>
+                  <c:v>-18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-13</c:v>
+                  <c:v>-15.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-10</c:v>
+                  <c:v>-12.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -503,11 +1137,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>ProgressReport!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>equal opportunity difference</c:v>
+                  <c:v>Equal Opportunity Difference</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -538,41 +1172,47 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>ProgressReport!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9999999999999995E-7</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5000000000000007E-6</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$5</c:f>
+              <c:f>ProgressReport!$G$2:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-6</c:v>
+                  <c:v>-9.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6</c:v>
+                  <c:v>-8.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5</c:v>
+                  <c:v>-6.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -600,8 +1240,7 @@
         <c:axId val="710839919"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0000000000000004E-5"/>
-          <c:min val="0"/>
+          <c:max val="0.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -626,7 +1265,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -639,7 +1278,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:rPr lang="en-US" sz="1200" b="1"/>
                   <a:t>alpha</a:t>
                 </a:r>
               </a:p>
@@ -658,7 +1297,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -674,7 +1313,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -696,7 +1335,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -719,7 +1358,6 @@
         <c:axId val="710841599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -744,7 +1382,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -757,7 +1395,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
                   <a:t>Accuracy </a:t>
                 </a:r>
               </a:p>
@@ -784,7 +1422,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -855,7 +1493,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -868,7 +1506,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
                   <a:t>Fairness Metrics</a:t>
                 </a:r>
               </a:p>
@@ -887,7 +1525,923 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="725845551"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="725845551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="725842543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.3595800524934388E-2"/>
+          <c:y val="0.81603450816049239"/>
+          <c:w val="0.9639195100612421"/>
+          <c:h val="0.18113589967920676"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13313670166229222"/>
+          <c:y val="5.5084060438391147E-2"/>
+          <c:w val="0.71475437445319334"/>
+          <c:h val="0.59672237955702523"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Poster!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Balanced Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Poster!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Poster!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F59-914E-8B47-200709466C11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="710839919"/>
+        <c:axId val="710841599"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Poster!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Disparate Impact </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Poster!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Poster!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5399999999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0F59-914E-8B47-200709466C11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Poster!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Odds Difference</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Poster!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Poster!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0F59-914E-8B47-200709466C11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Poster!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Statistical Parity Difference</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Poster!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Poster!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0F59-914E-8B47-200709466C11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Poster!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Equal Opportunity Difference</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Poster!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Poster!$G$2:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0F59-914E-8B47-200709466C11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="725845551"/>
+        <c:axId val="725842543"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="710839919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1"/>
+                  <a:t>alpha</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="710841599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="710841599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>Accuracy </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9395669291338586E-2"/>
+              <c:y val="0.23746820109024833"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="710839919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="725842543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="40"/>
+          <c:min val="-20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>Fairness Metrics</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1092,6 +2646,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1608,19 +3202,535 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1646,6 +3756,109 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D1BE24-8224-4447-AB66-DCEEAB1DBF6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>618718</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>179104</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="618717" cy="250453"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56C5A33B-B2B6-2B49-864E-71A0703AE559}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11088077" y="6236027"/>
+          <a:ext cx="618717" cy="250453"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1946,126 +4159,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3159C5F4-8C0A-9C4B-A215-7AE2909EB65E}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="B2">
-        <v>66.400000000000006</v>
+        <v>64.8</v>
       </c>
       <c r="C2">
         <v>80.900000000000006</v>
       </c>
       <c r="D2">
-        <v>17.850000000000001</v>
+        <v>-24.2</v>
       </c>
       <c r="E2">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="F2">
-        <v>-13</v>
+        <v>-18</v>
       </c>
       <c r="G2">
-        <v>-6</v>
+        <v>-9.8000000000000007</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>9.9999999999999995E-7</v>
+        <v>0.1</v>
       </c>
       <c r="B3">
-        <v>66.7</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="C3">
         <v>80.900000000000006</v>
       </c>
       <c r="D3">
-        <v>18.440000000000001</v>
+        <v>-20.6</v>
       </c>
       <c r="E3">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="F3">
-        <v>-13</v>
+        <v>-15.4</v>
       </c>
       <c r="G3">
-        <v>-6</v>
+        <v>-8.6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f>AVERAGE(A3,A5)</f>
-        <v>5.5000000000000007E-6</v>
+        <v>0.05</v>
       </c>
       <c r="B4">
-        <v>63.6</v>
+        <v>63.5</v>
       </c>
       <c r="C4">
         <v>80.900000000000006</v>
       </c>
       <c r="D4">
-        <v>12.31</v>
+        <v>-16.2</v>
       </c>
       <c r="E4">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="F4">
-        <v>-10</v>
+        <v>-12.6</v>
       </c>
       <c r="G4">
-        <v>-5</v>
+        <v>-6.4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1.0000000000000001E-5</v>
+        <v>0.01</v>
       </c>
       <c r="B5">
-        <v>55.1</v>
+        <v>55.4</v>
       </c>
       <c r="C5">
         <v>80.900000000000006</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-0.12</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2074,6 +4279,29 @@
         <v>0</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1E-3</v>
+      </c>
+      <c r="B6">
+        <v>55.1</v>
+      </c>
+      <c r="C6">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>0</v>
       </c>
     </row>
@@ -2081,4 +4309,460 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB577577-D3AC-CB47-B7AD-3FBE5F801170}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>68</v>
+      </c>
+      <c r="C2">
+        <v>30.8</v>
+      </c>
+      <c r="D2">
+        <v>30.78</v>
+      </c>
+      <c r="E2">
+        <v>-16</v>
+      </c>
+      <c r="F2">
+        <v>-19</v>
+      </c>
+      <c r="G2">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>14.1</v>
+      </c>
+      <c r="D3">
+        <v>14.29</v>
+      </c>
+      <c r="E3">
+        <v>-10</v>
+      </c>
+      <c r="F3">
+        <v>-12</v>
+      </c>
+      <c r="G3">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1.5</v>
+      </c>
+      <c r="B4">
+        <v>62</v>
+      </c>
+      <c r="C4">
+        <v>13.3</v>
+      </c>
+      <c r="D4">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="E4">
+        <v>-6</v>
+      </c>
+      <c r="F4">
+        <v>-7</v>
+      </c>
+      <c r="G4">
+        <v>-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40CC5EAE-A54C-9840-B2D6-70DD50CF80C7}">
+  <dimension ref="B1:N17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="27"/>
+      <c r="K2" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="35"/>
+    </row>
+    <row r="3" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="28"/>
+      <c r="K3" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="15">
+        <v>69.8</v>
+      </c>
+      <c r="D4" s="9">
+        <v>78</v>
+      </c>
+      <c r="E4" s="9">
+        <v>59</v>
+      </c>
+      <c r="F4" s="9">
+        <v>69</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="24">
+        <v>-56.16</v>
+      </c>
+      <c r="L4" s="21">
+        <v>-24</v>
+      </c>
+      <c r="M4" s="21">
+        <v>-29</v>
+      </c>
+      <c r="N4" s="22">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="16">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="D5" s="3">
+        <v>93</v>
+      </c>
+      <c r="E5" s="3">
+        <v>32</v>
+      </c>
+      <c r="F5" s="3">
+        <v>63</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="25">
+        <v>-26.09</v>
+      </c>
+      <c r="L5" s="17">
+        <v>20</v>
+      </c>
+      <c r="M5" s="17">
+        <v>21</v>
+      </c>
+      <c r="N5" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="J6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="25">
+        <v>-38.64</v>
+      </c>
+      <c r="L6" s="17">
+        <v>-19</v>
+      </c>
+      <c r="M6" s="17">
+        <v>-22</v>
+      </c>
+      <c r="N6" s="18">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="26">
+        <v>-55.73</v>
+      </c>
+      <c r="L7" s="19">
+        <v>-22</v>
+      </c>
+      <c r="M7" s="19">
+        <v>-27</v>
+      </c>
+      <c r="N7" s="20">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="29"/>
+      <c r="K8" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="38"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="J9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="39">
+        <v>-16.61</v>
+      </c>
+      <c r="L9" s="40">
+        <v>-12</v>
+      </c>
+      <c r="M9" s="40">
+        <v>-14</v>
+      </c>
+      <c r="N9" s="41">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="J10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="23">
+        <v>-10.36</v>
+      </c>
+      <c r="L10" s="17">
+        <v>9</v>
+      </c>
+      <c r="M10" s="17">
+        <v>9</v>
+      </c>
+      <c r="N10" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="J11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="23">
+        <v>-19.16</v>
+      </c>
+      <c r="L11" s="17">
+        <v>-14</v>
+      </c>
+      <c r="M11" s="17">
+        <v>-15</v>
+      </c>
+      <c r="N11" s="18">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="16">
+        <v>-19.8</v>
+      </c>
+      <c r="L12" s="19">
+        <v>-12</v>
+      </c>
+      <c r="M12" s="19">
+        <v>-15</v>
+      </c>
+      <c r="N12" s="20">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="J14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="2">
+        <f>K4/K9</f>
+        <v>3.3810957254665861</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" ref="L14:N14" si="0">L4/L9</f>
+        <v>2</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0714285714285716</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K15" s="2">
+        <f t="shared" ref="K15:N17" si="1">K5/K10</f>
+        <v>2.5183397683397684</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K16" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0167014613778704</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3571428571428572</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4666666666666666</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="1"/>
+        <v>2.8333333333333335</v>
+      </c>
+    </row>
+    <row r="17" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K17" s="2">
+        <f t="shared" si="1"/>
+        <v>2.8146464646464642</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="1"/>
+        <v>2.8333333333333335</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="J2:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>